--- a/ELearning.xlsx
+++ b/ELearning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BADRIVISHALBODYGUARD\Documents\Selenium\ELearning project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F90000C-99F8-44A3-ACF8-F4544899D2DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A966409B-AEE0-4D2E-B0C0-A7175FC59C5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1036,7 +1036,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-Update Badri - Navigation has chnaged - From Admin page to course intro page , we need to go to course and cuse page</t>
+Update Badri - Navigation has chnaged - From Admin page to course intro page , we need to go to courselist and course pagedescription</t>
     </r>
   </si>
 </sst>
@@ -1578,8 +1578,8 @@
   <dimension ref="A1:L246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47:E56"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
